--- a/www/data/recipient_list_form.xlsx
+++ b/www/data/recipient_list_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Local\Temp\fz3temp-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF59081D-5F88-2244-A7F1-C4FF3575003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92BB432-84F4-42EE-89C0-CC59F76906C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="36420" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17388" yWindow="-1584" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>우편번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주민번호앞자리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,22 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>휴대폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장기요양인정번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,22 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본인부담금율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효기간 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효기간 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용기간 기준일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +104,30 @@
   </si>
   <si>
     <t>수령방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인부담율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인정유효기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근조회일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,169 +602,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="43.83203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="59.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.1640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30.83203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="25" style="2" customWidth="1"/>
-    <col min="20" max="20" width="24" style="2" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.1640625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="14.6640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="20.83203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="30.83203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="29.6640625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="29.5" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="25.625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="18.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.625" style="2" customWidth="1"/>
+    <col min="21" max="22" width="18.625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="25.625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="18.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="10.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="12.625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="16.625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="6" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="11"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="11"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="18">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="T2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1"/>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
